--- a/natmiOut/OldD0/LR-pairs_lrc2p/Efna2-Epha2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Efna2-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.18488116974772</v>
+        <v>1.408030333333333</v>
       </c>
       <c r="H2">
-        <v>1.18488116974772</v>
+        <v>4.224091</v>
       </c>
       <c r="I2">
-        <v>0.3086477349207626</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="J2">
-        <v>0.3086477349207626</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.50391299342776</v>
+        <v>11.55727433333333</v>
       </c>
       <c r="N2">
-        <v>4.50391299342776</v>
+        <v>34.671823</v>
       </c>
       <c r="O2">
-        <v>0.3049420455531456</v>
+        <v>0.5239815261112396</v>
       </c>
       <c r="P2">
-        <v>0.3049420455531456</v>
+        <v>0.5239815261112395</v>
       </c>
       <c r="Q2">
-        <v>5.33660169609464</v>
+        <v>16.27299283198811</v>
       </c>
       <c r="R2">
-        <v>5.33660169609464</v>
+        <v>146.456935487893</v>
       </c>
       <c r="S2">
-        <v>0.0941196716420824</v>
+        <v>0.1810218497292622</v>
       </c>
       <c r="T2">
-        <v>0.0941196716420824</v>
+        <v>0.1810218497292622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.18488116974772</v>
+        <v>1.408030333333333</v>
       </c>
       <c r="H3">
-        <v>1.18488116974772</v>
+        <v>4.224091</v>
       </c>
       <c r="I3">
-        <v>0.3086477349207626</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="J3">
-        <v>0.3086477349207626</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>10.2658213187362</v>
+        <v>0.09477133333333332</v>
       </c>
       <c r="N3">
-        <v>10.2658213187362</v>
+        <v>0.284314</v>
       </c>
       <c r="O3">
-        <v>0.6950579544468544</v>
+        <v>0.004296724853919303</v>
       </c>
       <c r="P3">
-        <v>0.6950579544468544</v>
+        <v>0.004296724853919302</v>
       </c>
       <c r="Q3">
-        <v>12.16377837256523</v>
+        <v>0.1334409120637778</v>
       </c>
       <c r="R3">
-        <v>12.16377837256523</v>
+        <v>1.200968208574</v>
       </c>
       <c r="S3">
-        <v>0.2145280632786802</v>
+        <v>0.001484405541177498</v>
       </c>
       <c r="T3">
-        <v>0.2145280632786802</v>
+        <v>0.001484405541177498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.00404790960648</v>
+        <v>1.408030333333333</v>
       </c>
       <c r="H4">
-        <v>2.00404790960648</v>
+        <v>4.224091</v>
       </c>
       <c r="I4">
-        <v>0.5220311232597504</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="J4">
-        <v>0.5220311232597504</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.50391299342776</v>
+        <v>10.404599</v>
       </c>
       <c r="N4">
-        <v>4.50391299342776</v>
+        <v>31.213797</v>
       </c>
       <c r="O4">
-        <v>0.3049420455531456</v>
+        <v>0.471721749034841</v>
       </c>
       <c r="P4">
-        <v>0.3049420455531456</v>
+        <v>0.471721749034841</v>
       </c>
       <c r="Q4">
-        <v>9.026057419528366</v>
+        <v>14.64999099816966</v>
       </c>
       <c r="R4">
-        <v>9.026057419528366</v>
+        <v>131.849918983527</v>
       </c>
       <c r="S4">
-        <v>0.1591892385692346</v>
+        <v>0.1629674698677856</v>
       </c>
       <c r="T4">
-        <v>0.1591892385692346</v>
+        <v>0.1629674698677856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.00404790960648</v>
+        <v>2.015377</v>
       </c>
       <c r="H5">
-        <v>2.00404790960648</v>
+        <v>6.046131</v>
       </c>
       <c r="I5">
-        <v>0.5220311232597504</v>
+        <v>0.494492045565236</v>
       </c>
       <c r="J5">
-        <v>0.5220311232597504</v>
+        <v>0.4944920455652361</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.2658213187362</v>
+        <v>11.55727433333333</v>
       </c>
       <c r="N5">
-        <v>10.2658213187362</v>
+        <v>34.671823</v>
       </c>
       <c r="O5">
-        <v>0.6950579544468544</v>
+        <v>0.5239815261112396</v>
       </c>
       <c r="P5">
-        <v>0.6950579544468544</v>
+        <v>0.5239815261112395</v>
       </c>
       <c r="Q5">
-        <v>20.57319775420692</v>
+        <v>23.29226487409034</v>
       </c>
       <c r="R5">
-        <v>20.57319775420692</v>
+        <v>209.630383866813</v>
       </c>
       <c r="S5">
-        <v>0.3628418846905158</v>
+        <v>0.259104696685141</v>
       </c>
       <c r="T5">
-        <v>0.3628418846905158</v>
+        <v>0.259104696685141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.650014271556533</v>
+        <v>2.015377</v>
       </c>
       <c r="H6">
-        <v>0.650014271556533</v>
+        <v>6.046131</v>
       </c>
       <c r="I6">
-        <v>0.1693211418194871</v>
+        <v>0.494492045565236</v>
       </c>
       <c r="J6">
-        <v>0.1693211418194871</v>
+        <v>0.4944920455652361</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>4.50391299342776</v>
+        <v>0.09477133333333332</v>
       </c>
       <c r="N6">
-        <v>4.50391299342776</v>
+        <v>0.284314</v>
       </c>
       <c r="O6">
-        <v>0.3049420455531456</v>
+        <v>0.004296724853919303</v>
       </c>
       <c r="P6">
-        <v>0.3049420455531456</v>
+        <v>0.004296724853919302</v>
       </c>
       <c r="Q6">
-        <v>2.92760772357695</v>
+        <v>0.1909999654593333</v>
       </c>
       <c r="R6">
-        <v>2.92760772357695</v>
+        <v>1.718999689134</v>
       </c>
       <c r="S6">
-        <v>0.05163313534182865</v>
+        <v>0.002124696262245546</v>
       </c>
       <c r="T6">
-        <v>0.05163313534182865</v>
+        <v>0.002124696262245546</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.650014271556533</v>
+        <v>2.015377</v>
       </c>
       <c r="H7">
-        <v>0.650014271556533</v>
+        <v>6.046131</v>
       </c>
       <c r="I7">
-        <v>0.1693211418194871</v>
+        <v>0.494492045565236</v>
       </c>
       <c r="J7">
-        <v>0.1693211418194871</v>
+        <v>0.4944920455652361</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.2658213187362</v>
+        <v>10.404599</v>
       </c>
       <c r="N7">
-        <v>10.2658213187362</v>
+        <v>31.213797</v>
       </c>
       <c r="O7">
-        <v>0.6950579544468544</v>
+        <v>0.471721749034841</v>
       </c>
       <c r="P7">
-        <v>0.6950579544468544</v>
+        <v>0.471721749034841</v>
       </c>
       <c r="Q7">
-        <v>6.672930366427838</v>
+        <v>20.969189518823</v>
       </c>
       <c r="R7">
-        <v>6.672930366427838</v>
+        <v>188.722705669407</v>
       </c>
       <c r="S7">
-        <v>0.1176880064776584</v>
+        <v>0.2332626526178495</v>
       </c>
       <c r="T7">
-        <v>0.1176880064776584</v>
+        <v>0.2332626526178495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6522436666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.956731</v>
+      </c>
+      <c r="I8">
+        <v>0.1600342292965385</v>
+      </c>
+      <c r="J8">
+        <v>0.1600342292965385</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>11.55727433333333</v>
+      </c>
+      <c r="N8">
+        <v>34.671823</v>
+      </c>
+      <c r="O8">
+        <v>0.5239815261112396</v>
+      </c>
+      <c r="P8">
+        <v>0.5239815261112395</v>
+      </c>
+      <c r="Q8">
+        <v>7.53815898784589</v>
+      </c>
+      <c r="R8">
+        <v>67.84343089061301</v>
+      </c>
+      <c r="S8">
+        <v>0.08385497969683632</v>
+      </c>
+      <c r="T8">
+        <v>0.08385497969683629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6522436666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.956731</v>
+      </c>
+      <c r="I9">
+        <v>0.1600342292965385</v>
+      </c>
+      <c r="J9">
+        <v>0.1600342292965385</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.09477133333333332</v>
+      </c>
+      <c r="N9">
+        <v>0.284314</v>
+      </c>
+      <c r="O9">
+        <v>0.004296724853919303</v>
+      </c>
+      <c r="P9">
+        <v>0.004296724853919302</v>
+      </c>
+      <c r="Q9">
+        <v>0.06181400194822221</v>
+      </c>
+      <c r="R9">
+        <v>0.5563260175339999</v>
+      </c>
+      <c r="S9">
+        <v>0.0006876230504962578</v>
+      </c>
+      <c r="T9">
+        <v>0.0006876230504962577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6522436666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.956731</v>
+      </c>
+      <c r="I10">
+        <v>0.1600342292965385</v>
+      </c>
+      <c r="J10">
+        <v>0.1600342292965385</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10.404599</v>
+      </c>
+      <c r="N10">
+        <v>31.213797</v>
+      </c>
+      <c r="O10">
+        <v>0.471721749034841</v>
+      </c>
+      <c r="P10">
+        <v>0.471721749034841</v>
+      </c>
+      <c r="Q10">
+        <v>6.786333801956333</v>
+      </c>
+      <c r="R10">
+        <v>61.077004217607</v>
+      </c>
+      <c r="S10">
+        <v>0.07549162654920596</v>
+      </c>
+      <c r="T10">
+        <v>0.07549162654920596</v>
       </c>
     </row>
   </sheetData>
